--- a/SPP_MS_SB_C1.xlsx
+++ b/SPP_MS_SB_C1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,14 +478,14 @@
         <v>14984</v>
       </c>
       <c r="D2" t="n">
-        <v>1.552624126023147</v>
+        <v>2.880092562991194</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -502,14 +502,14 @@
         <v>17686</v>
       </c>
       <c r="D3" t="n">
-        <v>1.950073834974319</v>
+        <v>4.279358360043261</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
         <v>13956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05471021897392347</v>
+        <v>0.04215747996931896</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
@@ -550,12 +550,900 @@
         <v>35394</v>
       </c>
       <c r="D5" t="n">
-        <v>1.918849344016053</v>
+        <v>5.337670646957122</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HT05(c2p2)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2705</v>
+      </c>
+      <c r="C6" t="n">
+        <v>37654</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.242282618011814</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HT06(c2p3)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2781</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39482</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.6362815980101</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HT07(c3p1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4693</v>
+      </c>
+      <c r="C8" t="n">
+        <v>89275</v>
+      </c>
+      <c r="D8" t="n">
+        <v>897.9210842550383</v>
+      </c>
+      <c r="E8" t="n">
+        <v>65</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HT08(c3p2)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4521</v>
+      </c>
+      <c r="C9" t="n">
+        <v>84249</v>
+      </c>
+      <c r="D9" t="n">
+        <v>897.9288702899939</v>
+      </c>
+      <c r="E9" t="n">
+        <v>51</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HT09(c3p3)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4610</v>
+      </c>
+      <c r="C10" t="n">
+        <v>87068</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.674094549030997</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CGCUT01</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9767</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.32236147095682</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CGCUT02</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6978</v>
+      </c>
+      <c r="C12" t="n">
+        <v>135267</v>
+      </c>
+      <c r="D12" t="n">
+        <v>897.9618389799725</v>
+      </c>
+      <c r="E12" t="n">
+        <v>239</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CGCUT03</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>104882</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5983608</v>
+      </c>
+      <c r="D13" t="n">
+        <v>898.6566304080188</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1571</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GCUT01</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>80885</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.900018733053</v>
+      </c>
+      <c r="E14" t="n">
+        <v>735</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GCUT02</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36103</v>
+      </c>
+      <c r="C15" t="n">
+        <v>689897</v>
+      </c>
+      <c r="D15" t="n">
+        <v>291.3815583520336</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1301</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GCUT03</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>71436</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2064723</v>
+      </c>
+      <c r="D16" t="n">
+        <v>898.0462927990011</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2282</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GCUT04</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>197107</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9498230</v>
+      </c>
+      <c r="D17" t="n">
+        <v>897.9635068119969</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3812</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NGCUT01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>641</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4438</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.815921775996685</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NGCUT02</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1833</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21328</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9.835362843004987</v>
+      </c>
+      <c r="E19" t="n">
+        <v>29</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NGCUT03</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2143</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26481</v>
+      </c>
+      <c r="D20" t="n">
+        <v>897.9540941139567</v>
+      </c>
+      <c r="E20" t="n">
+        <v>55</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NGCUT04</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>226</v>
+      </c>
+      <c r="C21" t="n">
+        <v>783</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.125304927001707</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NGCUT05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8042</v>
+      </c>
+      <c r="D22" t="n">
+        <v>139.6623457130045</v>
+      </c>
+      <c r="E22" t="n">
+        <v>30</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NGCUT06</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1332</v>
+      </c>
+      <c r="C23" t="n">
+        <v>13354</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.09621432999847457</v>
+      </c>
+      <c r="E23" t="n">
+        <v>20</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NGCUT07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>466</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.344109377008863</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NGCUT08</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9356</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.548206436040346</v>
+      </c>
+      <c r="E25" t="n">
+        <v>36</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NGCUT09</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2529</v>
+      </c>
+      <c r="C26" t="n">
+        <v>33277</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50.17833119403804</v>
+      </c>
+      <c r="E26" t="n">
+        <v>52</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGCUT10</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2299</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25244</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.096026479033753</v>
+      </c>
+      <c r="E27" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGCUT11</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C28" t="n">
+        <v>30090</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.52277411101386</v>
+      </c>
+      <c r="E28" t="n">
+        <v>59</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NGCUT12</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6233</v>
+      </c>
+      <c r="C29" t="n">
+        <v>115317</v>
+      </c>
+      <c r="D29" t="n">
+        <v>897.9556425730116</v>
+      </c>
+      <c r="E29" t="n">
+        <v>226</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BENG01</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2148</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27531</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.407176815031562</v>
+      </c>
+      <c r="E30" t="n">
+        <v>30</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BENG02</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7754</v>
+      </c>
+      <c r="C31" t="n">
+        <v>184729</v>
+      </c>
+      <c r="D31" t="n">
+        <v>897.94276115502</v>
+      </c>
+      <c r="E31" t="n">
+        <v>98</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BENG03</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16316</v>
+      </c>
+      <c r="C32" t="n">
+        <v>552977</v>
+      </c>
+      <c r="D32" t="n">
+        <v>897.9322942290455</v>
+      </c>
+      <c r="E32" t="n">
+        <v>136</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BENG04</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28087</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1233922</v>
+      </c>
+      <c r="D33" t="n">
+        <v>897.931574002956</v>
+      </c>
+      <c r="E33" t="n">
+        <v>175</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BENG05</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>42811</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2298648</v>
+      </c>
+      <c r="D34" t="n">
+        <v>897.9082945809932</v>
+      </c>
+      <c r="E34" t="n">
+        <v>212</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BENG06</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6940</v>
+      </c>
+      <c r="C35" t="n">
+        <v>152888</v>
+      </c>
+      <c r="D35" t="n">
+        <v>23.93365833698772</v>
+      </c>
+      <c r="E35" t="n">
+        <v>36</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>COMPLETE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>BENG07</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>24467</v>
+      </c>
+      <c r="C36" t="n">
+        <v>947317</v>
+      </c>
+      <c r="D36" t="n">
+        <v>897.912706423027</v>
+      </c>
+      <c r="E36" t="n">
+        <v>115</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>BENG08</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>52546</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2880645</v>
+      </c>
+      <c r="D37" t="n">
+        <v>897.9437802640023</v>
+      </c>
+      <c r="E37" t="n">
+        <v>167</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BENG09</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>89476</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6177113</v>
+      </c>
+      <c r="D38" t="n">
+        <v>898.7970241190051</v>
+      </c>
+      <c r="E38" t="n">
+        <v>208</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BENG10</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>139066</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11896770</v>
+      </c>
+      <c r="D39" t="n">
+        <v>897.9720137200202</v>
+      </c>
+      <c r="E39" t="n">
+        <v>264</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HT10(c4p1)</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14056</v>
+      </c>
+      <c r="C40" t="n">
+        <v>459389</v>
+      </c>
+      <c r="D40" t="n">
+        <v>898.0489317190368</v>
+      </c>
+      <c r="E40" t="n">
+        <v>143</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HT11(c4p2)</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14189</v>
+      </c>
+      <c r="C41" t="n">
+        <v>465450</v>
+      </c>
+      <c r="D41" t="n">
+        <v>898.0694097799715</v>
+      </c>
+      <c r="E41" t="n">
+        <v>145</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>TIMEOUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>HT12(c4p3)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14456</v>
+      </c>
+      <c r="C42" t="n">
+        <v>478669</v>
+      </c>
+      <c r="D42" t="n">
+        <v>897.9584143330576</v>
+      </c>
+      <c r="E42" t="n">
+        <v>150</v>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>

--- a/SPP_MS_SB_C1.xlsx
+++ b/SPP_MS_SB_C1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,20 +468,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HT01(c1p1)</t>
+          <t>CGCUT01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1407</v>
+        <v>1289</v>
       </c>
       <c r="C2" t="n">
-        <v>14984</v>
+        <v>12779</v>
       </c>
       <c r="D2" t="n">
-        <v>2.880092562991194</v>
+        <v>0.4785050309728831</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -492,68 +492,68 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HT02(c1p2)</t>
+          <t>CGCUT02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586</v>
+        <v>5338</v>
       </c>
       <c r="C3" t="n">
-        <v>17686</v>
+        <v>98376</v>
       </c>
       <c r="D3" t="n">
-        <v>4.279358360043261</v>
+        <v>1798.642709646025</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HT03(c1p3)</t>
+          <t>CGCUT03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1346</v>
+        <v>58961</v>
       </c>
       <c r="C4" t="n">
-        <v>13956</v>
+        <v>3156236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04215747996931896</v>
+        <v>1798.837084750994</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>805</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HT04(c2p1)</t>
+          <t>GCUT01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2610</v>
+        <v>1289</v>
       </c>
       <c r="C5" t="n">
-        <v>35394</v>
+        <v>12779</v>
       </c>
       <c r="D5" t="n">
-        <v>5.337670646957122</v>
+        <v>0.2469808700261638</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -564,68 +564,68 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HT05(c2p2)</t>
+          <t>GCUT02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2705</v>
+        <v>5338</v>
       </c>
       <c r="C6" t="n">
-        <v>37654</v>
+        <v>98376</v>
       </c>
       <c r="D6" t="n">
-        <v>5.242282618011814</v>
+        <v>1798.196224840009</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HT06(c2p3)</t>
+          <t>GCUT03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2781</v>
+        <v>58961</v>
       </c>
       <c r="C7" t="n">
-        <v>39482</v>
+        <v>3156236</v>
       </c>
       <c r="D7" t="n">
-        <v>4.6362815980101</v>
+        <v>1798.855069835961</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>805</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HT07(c3p1)</t>
+          <t>GCUT04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4693</v>
+        <v>201799</v>
       </c>
       <c r="C8" t="n">
-        <v>89275</v>
+        <v>9752890</v>
       </c>
       <c r="D8" t="n">
-        <v>897.9210842550383</v>
+        <v>1798.682123130013</v>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>3904</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -636,41 +636,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HT08(c3p2)</t>
+          <t>NGCUT01</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4521</v>
+        <v>652</v>
       </c>
       <c r="C9" t="n">
-        <v>84249</v>
+        <v>4497</v>
       </c>
       <c r="D9" t="n">
-        <v>897.9288702899939</v>
+        <v>1.829900159034878</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HT09(c3p3)</t>
+          <t>NGCUT02</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4610</v>
+        <v>1743</v>
       </c>
       <c r="C10" t="n">
-        <v>87068</v>
+        <v>19651</v>
       </c>
       <c r="D10" t="n">
-        <v>7.674094549030997</v>
+        <v>4.295973158965353</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -684,20 +684,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CGCUT01</t>
+          <t>NGCUT03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1105</v>
+        <v>2231</v>
       </c>
       <c r="C11" t="n">
-        <v>9767</v>
+        <v>28899</v>
       </c>
       <c r="D11" t="n">
-        <v>42.32236147095682</v>
+        <v>4.31674728699727</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -708,68 +708,68 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CGCUT02</t>
+          <t>NGCUT04</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6978</v>
+        <v>313</v>
       </c>
       <c r="C12" t="n">
-        <v>135267</v>
+        <v>1445</v>
       </c>
       <c r="D12" t="n">
-        <v>897.9618389799725</v>
+        <v>1.209395206999034</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CGCUT03</t>
+          <t>NGCUT05</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104882</v>
+        <v>1058</v>
       </c>
       <c r="C13" t="n">
-        <v>5983608</v>
+        <v>9535</v>
       </c>
       <c r="D13" t="n">
-        <v>898.6566304080188</v>
+        <v>0.04776498605497181</v>
       </c>
       <c r="E13" t="n">
-        <v>1571</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GCUT01</t>
+          <t>NGCUT06</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8617</v>
+        <v>1552</v>
       </c>
       <c r="C14" t="n">
-        <v>80885</v>
+        <v>16695</v>
       </c>
       <c r="D14" t="n">
-        <v>12.900018733053</v>
+        <v>17.07687822502339</v>
       </c>
       <c r="E14" t="n">
-        <v>735</v>
+        <v>31</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -780,20 +780,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GCUT02</t>
+          <t>NGCUT07</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36103</v>
+        <v>527</v>
       </c>
       <c r="C15" t="n">
-        <v>689897</v>
+        <v>3284</v>
       </c>
       <c r="D15" t="n">
-        <v>291.3815583520336</v>
+        <v>0.02496498799882829</v>
       </c>
       <c r="E15" t="n">
-        <v>1301</v>
+        <v>20</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -804,68 +804,68 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GCUT03</t>
+          <t>NGCUT08</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71436</v>
+        <v>1351</v>
       </c>
       <c r="C16" t="n">
-        <v>2064723</v>
+        <v>13490</v>
       </c>
       <c r="D16" t="n">
-        <v>898.0462927990011</v>
+        <v>2.949649473011959</v>
       </c>
       <c r="E16" t="n">
-        <v>2282</v>
+        <v>33</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GCUT04</t>
+          <t>NGCUT09</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197107</v>
+        <v>2738</v>
       </c>
       <c r="C17" t="n">
-        <v>9498230</v>
+        <v>38019</v>
       </c>
       <c r="D17" t="n">
-        <v>897.9635068119969</v>
+        <v>159.4421963799978</v>
       </c>
       <c r="E17" t="n">
-        <v>3812</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TIMEOUT</t>
+          <t>COMPLETE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NGCUT01</t>
+          <t>NGCUT10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>641</v>
+        <v>2663</v>
       </c>
       <c r="C18" t="n">
-        <v>4438</v>
+        <v>29737</v>
       </c>
       <c r="D18" t="n">
-        <v>1.815921775996685</v>
+        <v>3.943493466998916</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -876,20 +876,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NGCUT02</t>
+          <t>NGCUT11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1833</v>
+        <v>2599</v>
       </c>
       <c r="C19" t="n">
-        <v>21328</v>
+        <v>31916</v>
       </c>
       <c r="D19" t="n">
-        <v>9.835362843004987</v>
+        <v>3.866474122973159</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -900,20 +900,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NGCUT03</t>
+          <t>NGCUT12</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2143</v>
+        <v>5014</v>
       </c>
       <c r="C20" t="n">
-        <v>26481</v>
+        <v>87500</v>
       </c>
       <c r="D20" t="n">
-        <v>897.9540941139567</v>
+        <v>1798.664202294021</v>
       </c>
       <c r="E20" t="n">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -924,20 +924,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NGCUT04</t>
+          <t>BENG01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>226</v>
+        <v>2253</v>
       </c>
       <c r="C21" t="n">
-        <v>783</v>
+        <v>29945</v>
       </c>
       <c r="D21" t="n">
-        <v>1.125304927001707</v>
+        <v>4.270521340018604</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -948,20 +948,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NGCUT05</t>
+          <t>BENG02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1005</v>
+        <v>7590</v>
       </c>
       <c r="C22" t="n">
-        <v>8042</v>
+        <v>179023</v>
       </c>
       <c r="D22" t="n">
-        <v>139.6623457130045</v>
+        <v>247.790545818978</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -972,20 +972,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NGCUT06</t>
+          <t>BENG03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1332</v>
+        <v>16438</v>
       </c>
       <c r="C23" t="n">
-        <v>13354</v>
+        <v>562359</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09621432999847457</v>
+        <v>111.9058889950393</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -996,68 +996,68 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NGCUT07</t>
+          <t>BENG04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>466</v>
+        <v>27844</v>
       </c>
       <c r="C24" t="n">
-        <v>2604</v>
+        <v>1217831</v>
       </c>
       <c r="D24" t="n">
-        <v>1.344109377008863</v>
+        <v>1798.97063270997</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NGCUT08</t>
+          <t>BENG05</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099</v>
+        <v>43316</v>
       </c>
       <c r="C25" t="n">
-        <v>9356</v>
+        <v>2353885</v>
       </c>
       <c r="D25" t="n">
-        <v>6.548206436040346</v>
+        <v>1798.733554538048</v>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NGCUT09</t>
+          <t>BENG06</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2529</v>
+        <v>6817</v>
       </c>
       <c r="C26" t="n">
-        <v>33277</v>
+        <v>147912</v>
       </c>
       <c r="D26" t="n">
-        <v>50.17833119403804</v>
+        <v>11.82310553500429</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1068,68 +1068,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NGCUT10</t>
+          <t>BENG07</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2299</v>
+        <v>24629</v>
       </c>
       <c r="C27" t="n">
-        <v>25244</v>
+        <v>960151</v>
       </c>
       <c r="D27" t="n">
-        <v>5.096026479033753</v>
+        <v>1798.865228832001</v>
       </c>
       <c r="E27" t="n">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NGCUT11</t>
+          <t>BENG08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2503</v>
+        <v>52062</v>
       </c>
       <c r="C28" t="n">
-        <v>30090</v>
+        <v>2822324</v>
       </c>
       <c r="D28" t="n">
-        <v>4.52277411101386</v>
+        <v>1798.759984082018</v>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>COMPLETE</t>
+          <t>TIMEOUT</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NGCUT12</t>
+          <t>BENG09</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6233</v>
+        <v>91408</v>
       </c>
       <c r="C29" t="n">
-        <v>115317</v>
+        <v>6485929</v>
       </c>
       <c r="D29" t="n">
-        <v>897.9556425730116</v>
+        <v>1799.617882217048</v>
       </c>
       <c r="E29" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1140,310 +1140,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BENG01</t>
+          <t>BENG10</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2148</v>
+        <v>139669</v>
       </c>
       <c r="C30" t="n">
-        <v>27531</v>
+        <v>12016980</v>
       </c>
       <c r="D30" t="n">
-        <v>5.407176815031562</v>
+        <v>34.73078108299524</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BENG02</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>7754</v>
-      </c>
-      <c r="C31" t="n">
-        <v>184729</v>
-      </c>
-      <c r="D31" t="n">
-        <v>897.94276115502</v>
-      </c>
-      <c r="E31" t="n">
-        <v>98</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BENG03</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>16316</v>
-      </c>
-      <c r="C32" t="n">
-        <v>552977</v>
-      </c>
-      <c r="D32" t="n">
-        <v>897.9322942290455</v>
-      </c>
-      <c r="E32" t="n">
-        <v>136</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BENG04</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>28087</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1233922</v>
-      </c>
-      <c r="D33" t="n">
-        <v>897.931574002956</v>
-      </c>
-      <c r="E33" t="n">
-        <v>175</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BENG05</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>42811</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2298648</v>
-      </c>
-      <c r="D34" t="n">
-        <v>897.9082945809932</v>
-      </c>
-      <c r="E34" t="n">
-        <v>212</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BENG06</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>6940</v>
-      </c>
-      <c r="C35" t="n">
-        <v>152888</v>
-      </c>
-      <c r="D35" t="n">
-        <v>23.93365833698772</v>
-      </c>
-      <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>COMPLETE</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BENG07</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>24467</v>
-      </c>
-      <c r="C36" t="n">
-        <v>947317</v>
-      </c>
-      <c r="D36" t="n">
-        <v>897.912706423027</v>
-      </c>
-      <c r="E36" t="n">
-        <v>115</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BENG08</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>52546</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2880645</v>
-      </c>
-      <c r="D37" t="n">
-        <v>897.9437802640023</v>
-      </c>
-      <c r="E37" t="n">
-        <v>167</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BENG09</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>89476</v>
-      </c>
-      <c r="C38" t="n">
-        <v>6177113</v>
-      </c>
-      <c r="D38" t="n">
-        <v>898.7970241190051</v>
-      </c>
-      <c r="E38" t="n">
-        <v>208</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BENG10</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>139066</v>
-      </c>
-      <c r="C39" t="n">
-        <v>11896770</v>
-      </c>
-      <c r="D39" t="n">
-        <v>897.9720137200202</v>
-      </c>
-      <c r="E39" t="n">
-        <v>264</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HT10(c4p1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>14056</v>
-      </c>
-      <c r="C40" t="n">
-        <v>459389</v>
-      </c>
-      <c r="D40" t="n">
-        <v>898.0489317190368</v>
-      </c>
-      <c r="E40" t="n">
-        <v>143</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HT11(c4p2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>14189</v>
-      </c>
-      <c r="C41" t="n">
-        <v>465450</v>
-      </c>
-      <c r="D41" t="n">
-        <v>898.0694097799715</v>
-      </c>
-      <c r="E41" t="n">
-        <v>145</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>TIMEOUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HT12(c4p3)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>14456</v>
-      </c>
-      <c r="C42" t="n">
-        <v>478669</v>
-      </c>
-      <c r="D42" t="n">
-        <v>897.9584143330576</v>
-      </c>
-      <c r="E42" t="n">
-        <v>150</v>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>TIMEOUT</t>
         </is>
